--- a/by-state-parse/output/nics.xlsx
+++ b/by-state-parse/output/nics.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="df2016" sheetId="1" r:id="rId1"/>
-    <sheet name="df2017" sheetId="2" r:id="rId2"/>
-    <sheet name="df2018" sheetId="3" r:id="rId3"/>
+    <sheet name="df2015" sheetId="1" r:id="rId1"/>
+    <sheet name="df2016" sheetId="2" r:id="rId2"/>
+    <sheet name="df2017" sheetId="3" r:id="rId3"/>
+    <sheet name="df2018" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
   <si>
     <t>State</t>
   </si>
@@ -634,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>3327</v>
+        <v>1903</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -646,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -655,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3332</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -663,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>4459</v>
+        <v>4338</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -675,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1348</v>
+        <v>1199</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -696,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5987</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -751,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>28909</v>
+        <v>23032</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -778,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>28928</v>
+        <v>23061</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -786,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>12222</v>
+        <v>11665</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -798,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3301</v>
+        <v>2892</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -813,13 +814,13 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2634</v>
+        <v>2460</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18162</v>
+        <v>17022</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -827,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>5538</v>
+        <v>4432</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -836,13 +837,13 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>750338</v>
+        <v>684341</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -854,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>9669</v>
+        <v>8245</v>
       </c>
       <c r="L7">
-        <v>15087</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>780676</v>
+        <v>697059</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -868,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -877,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>69821</v>
+        <v>61848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -892,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="K8">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>70306</v>
+        <v>62253</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -909,22 +910,22 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>363775</v>
+        <v>348793</v>
       </c>
       <c r="C9">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D9">
-        <v>51709</v>
+        <v>47279</v>
       </c>
       <c r="E9">
-        <v>6575</v>
+        <v>5664</v>
       </c>
       <c r="F9">
-        <v>62477</v>
+        <v>22752</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -933,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>796</v>
+        <v>689</v>
       </c>
       <c r="K9">
-        <v>25356</v>
+        <v>21064</v>
       </c>
       <c r="L9">
-        <v>144634</v>
+        <v>89630</v>
       </c>
       <c r="M9">
-        <v>655651</v>
+        <v>536187</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -962,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18210</v>
+        <v>19819</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -980,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>18211</v>
+        <v>19819</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -991,19 +992,19 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>89154</v>
+        <v>89190</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>141042</v>
+        <v>133118</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1018,13 +1019,13 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L11">
-        <v>10671</v>
+        <v>9891</v>
       </c>
       <c r="M11">
-        <v>241038</v>
+        <v>232245</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1035,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>10094</v>
+        <v>10053</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1065,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10116</v>
+        <v>10078</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1126,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2239</v>
+        <v>2065</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1147,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2243</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1167,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34676</v>
+        <v>6869</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1188,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34677</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1196,40 +1197,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>5510</v>
+        <v>2682</v>
       </c>
       <c r="C16">
-        <v>317</v>
+        <v>1767</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>822</v>
+        <v>623</v>
       </c>
       <c r="F16">
-        <v>47554</v>
+        <v>47386</v>
       </c>
       <c r="G16">
-        <v>481</v>
+        <v>293</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="K16">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L16">
-        <v>10393</v>
+        <v>7167</v>
       </c>
       <c r="M16">
-        <v>65731</v>
+        <v>60483</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1237,19 +1238,19 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>372242</v>
+        <v>770</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>9442</v>
+        <v>8443</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1264,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>381694</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1278,22 +1279,22 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>45774</v>
+        <v>41333</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1302,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46216</v>
+        <v>41697</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1331,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6590</v>
+        <v>6172</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1346,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>3589</v>
+        <v>899</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10181</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1360,19 +1361,19 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>4432</v>
+        <v>4081</v>
       </c>
       <c r="C20">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D20">
-        <v>9527</v>
+        <v>3773</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>30232</v>
+        <v>23506</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1387,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>453</v>
+        <v>220</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>44757</v>
+        <v>31715</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1401,10 +1402,10 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>365365</v>
+        <v>324419</v>
       </c>
       <c r="C21">
-        <v>3583</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1413,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4093</v>
+        <v>2735</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1425,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1450</v>
+        <v>1209</v>
       </c>
       <c r="K21">
-        <v>23338</v>
+        <v>19829</v>
       </c>
       <c r="L21">
-        <v>3909</v>
+        <v>2463</v>
       </c>
       <c r="M21">
-        <v>401739</v>
+        <v>350656</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1454,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3795</v>
+        <v>3150</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1475,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3801</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1492,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1516,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1524,7 +1525,7 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1533,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>16783</v>
+        <v>13971</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1557,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>16806</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1565,19 +1566,19 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>237533</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>430434</v>
+        <v>416047</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>1598</v>
       </c>
       <c r="F25">
-        <v>14322</v>
+        <v>11541</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1592,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2281</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>684580</v>
+        <v>429205</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1606,22 +1607,22 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>2008</v>
+        <v>2057</v>
       </c>
       <c r="F26">
-        <v>138311</v>
+        <v>132084</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1633,13 +1634,13 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="M26">
-        <v>140847</v>
+        <v>134503</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1647,19 +1648,19 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>736</v>
+        <v>676</v>
       </c>
       <c r="F27">
-        <v>55261</v>
+        <v>50619</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1671,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L27">
-        <v>2177</v>
+        <v>1177</v>
       </c>
       <c r="M27">
-        <v>58307</v>
+        <v>52551</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1700,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>12183</v>
+        <v>9182</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1721,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>12183</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1738,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>46393</v>
+        <v>44374</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1756,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>594</v>
+        <v>635</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>46990</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1770,10 +1771,10 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1782,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1803,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,7 +1812,7 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1820,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>29315</v>
+        <v>27895</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1838,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>29366</v>
+        <v>27922</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1852,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1861,31 +1862,31 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F32">
-        <v>6173</v>
+        <v>5188</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K32">
-        <v>1323</v>
+        <v>1085</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>8105</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1893,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1902,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2519</v>
+        <v>2880</v>
       </c>
       <c r="F33">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1920,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>13794</v>
+        <v>13714</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>16647</v>
+        <v>16793</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1934,10 +1935,10 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1946,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>431543</v>
+        <v>449153</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1958,16 +1959,16 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K34">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>431630</v>
+        <v>449222</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1975,10 +1976,10 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <v>197289</v>
+        <v>190767</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1987,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>7370</v>
+        <v>6999</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1999,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2806</v>
+        <v>2947</v>
       </c>
       <c r="K35">
-        <v>27391</v>
+        <v>27411</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>234856</v>
+        <v>228125</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2025,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>463605</v>
+        <v>382870</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2040,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>57591</v>
+        <v>52653</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>101648</v>
+        <v>96797</v>
       </c>
       <c r="M36">
-        <v>622844</v>
+        <v>532321</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2057,40 +2058,40 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>1080</v>
+        <v>989</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F37">
-        <v>272337</v>
+        <v>139663</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="K37">
-        <v>1953</v>
+        <v>1800</v>
       </c>
       <c r="L37">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="M37">
-        <v>276092</v>
+        <v>143002</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2110,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2090</v>
+        <v>1258</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2131,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>2091</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>54745</v>
+        <v>51011</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2166,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>54748</v>
+        <v>51013</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2192,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2411</v>
+        <v>1004</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2213,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>2414</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2233,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>24765</v>
+        <v>31136</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2254,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>24769</v>
+        <v>31140</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2262,7 +2263,7 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2271,10 +2272,10 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F42">
-        <v>794589</v>
+        <v>756952</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2295,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>794695</v>
+        <v>757056</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,10 +2304,10 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>12113</v>
+        <v>8427</v>
       </c>
       <c r="C43">
-        <v>3947</v>
+        <v>9147</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2336,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>16060</v>
+        <v>17574</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2356,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>440</v>
+        <v>306</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2377,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>440</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,25 +2386,25 @@
         <v>56</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>79760</v>
+        <v>75089</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2412,13 +2413,13 @@
         <v>2</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>80072</v>
+        <v>75126</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2438,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>805</v>
+        <v>549</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2459,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>805</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2467,7 +2468,7 @@
         <v>58</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2476,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F47">
-        <v>33447</v>
+        <v>25596</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2494,13 +2495,13 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>33461</v>
+        <v>25613</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2508,22 +2509,22 @@
         <v>59</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>273705</v>
+        <v>262069</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2535,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>273733</v>
+        <v>262090</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2549,22 +2550,22 @@
         <v>60</v>
       </c>
       <c r="B49">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C49">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D49">
-        <v>1652</v>
+        <v>1623</v>
       </c>
       <c r="E49">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F49">
-        <v>10178</v>
+        <v>9147</v>
       </c>
       <c r="G49">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2573,16 +2574,16 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="K49">
-        <v>1558</v>
+        <v>1497</v>
       </c>
       <c r="L49">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>17621</v>
+        <v>16277</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2590,7 +2591,7 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>32085</v>
+        <v>31922</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2599,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>702</v>
+        <v>414</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2617,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>32793</v>
+        <v>32342</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2672,7 +2673,7 @@
         <v>63</v>
       </c>
       <c r="B52">
-        <v>107513</v>
+        <v>106916</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2681,13 +2682,13 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F52">
-        <v>268868</v>
+        <v>246053</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2699,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>758</v>
+        <v>287</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>377219</v>
+        <v>353310</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2713,22 +2714,22 @@
         <v>64</v>
       </c>
       <c r="B53">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E53">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F53">
-        <v>115538</v>
+        <v>106436</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2737,16 +2738,16 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K53">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L53">
-        <v>489</v>
+        <v>314</v>
       </c>
       <c r="M53">
-        <v>117229</v>
+        <v>107766</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2763,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>32583</v>
+        <v>21785</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2784,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>32585</v>
+        <v>21787</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2795,7 +2796,7 @@
         <v>66</v>
       </c>
       <c r="B55">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2804,10 +2805,10 @@
         <v>6</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>27189</v>
+        <v>23023</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2822,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
-        <v>27560</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2836,16 +2837,16 @@
         <v>67</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>18386</v>
+        <v>17780</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -2863,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>18424</v>
+        <v>17802</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,40 +2878,40 @@
         <v>68</v>
       </c>
       <c r="B57">
-        <v>1814312</v>
+        <v>1132939</v>
       </c>
       <c r="C57">
-        <v>8485</v>
+        <v>11544</v>
       </c>
       <c r="D57">
-        <v>511855</v>
+        <v>486638</v>
       </c>
       <c r="E57">
-        <v>13443</v>
+        <v>14185</v>
       </c>
       <c r="F57">
-        <v>4487573</v>
+        <v>3986886</v>
       </c>
       <c r="G57">
-        <v>600</v>
+        <v>408</v>
       </c>
       <c r="H57">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I57">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J57">
-        <v>66559</v>
+        <v>61039</v>
       </c>
       <c r="K57">
-        <v>116185</v>
+        <v>100456</v>
       </c>
       <c r="L57">
-        <v>290336</v>
+        <v>208117</v>
       </c>
       <c r="M57">
-        <v>7309435</v>
+        <v>6002274</v>
       </c>
     </row>
   </sheetData>
@@ -2996,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>5306</v>
+        <v>3327</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3023,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5308</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3031,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>4565</v>
+        <v>4459</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3043,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3055,16 +3056,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1522</v>
+        <v>1348</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6356</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3116,16 +3117,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>30741</v>
+        <v>28909</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3146,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>30762</v>
+        <v>28928</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3154,22 +3155,22 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>12630</v>
+        <v>12222</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3757</v>
+        <v>3301</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3178,16 +3179,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>2951</v>
+        <v>2634</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19350</v>
+        <v>18162</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3195,19 +3196,19 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>6378</v>
+        <v>5538</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>821905</v>
+        <v>750338</v>
       </c>
       <c r="G7">
         <v>21</v>
@@ -3222,13 +3223,13 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>10721</v>
+        <v>9669</v>
       </c>
       <c r="L7">
-        <v>196002</v>
+        <v>15087</v>
       </c>
       <c r="M7">
-        <v>1035042</v>
+        <v>780676</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -3236,7 +3237,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3245,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>77364</v>
+        <v>69821</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3260,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="K8">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>77933</v>
+        <v>70306</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -3277,19 +3278,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>371922</v>
+        <v>363775</v>
       </c>
       <c r="C9">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>51709</v>
       </c>
       <c r="E9">
-        <v>5841</v>
+        <v>6575</v>
       </c>
       <c r="F9">
-        <v>63394</v>
+        <v>62477</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -3301,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>694</v>
+        <v>796</v>
       </c>
       <c r="K9">
-        <v>27447</v>
+        <v>25356</v>
       </c>
       <c r="L9">
-        <v>148529</v>
+        <v>144634</v>
       </c>
       <c r="M9">
-        <v>618021</v>
+        <v>655651</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3330,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16359</v>
+        <v>18210</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3351,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16360</v>
+        <v>18211</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3359,7 +3360,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>87366</v>
+        <v>89154</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3368,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="F11">
-        <v>151859</v>
+        <v>141042</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3383,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="L11">
-        <v>11335</v>
+        <v>10671</v>
       </c>
       <c r="M11">
-        <v>250873</v>
+        <v>241038</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3403,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>11063</v>
+        <v>10094</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3433,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11069</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3491,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>7593</v>
+        <v>2239</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3512,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>7603</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3535,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36148</v>
+        <v>34676</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3556,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>36149</v>
+        <v>34677</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3564,40 +3565,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>10428</v>
+        <v>5510</v>
       </c>
       <c r="C16">
-        <v>1956</v>
+        <v>317</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>570</v>
+        <v>822</v>
       </c>
       <c r="F16">
-        <v>47555</v>
+        <v>47554</v>
       </c>
       <c r="G16">
-        <v>795</v>
+        <v>481</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="K16">
-        <v>901</v>
+        <v>222</v>
       </c>
       <c r="L16">
-        <v>13854</v>
+        <v>10393</v>
       </c>
       <c r="M16">
-        <v>76543</v>
+        <v>65731</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3605,19 +3606,19 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>399425</v>
+        <v>372242</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>10484</v>
+        <v>9442</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3635,10 +3636,10 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>409920</v>
+        <v>381694</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3646,19 +3647,19 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>49089</v>
+        <v>45774</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -3670,16 +3671,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>49548</v>
+        <v>46216</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3696,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>6908</v>
+        <v>6590</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3714,13 +3715,13 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>5390</v>
+        <v>3589</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12301</v>
+        <v>10181</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3728,19 +3729,19 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>4442</v>
+        <v>4432</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>9527</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>36501</v>
+        <v>30232</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3755,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>528</v>
+        <v>453</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41555</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3769,19 +3770,19 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>420007</v>
+        <v>365365</v>
       </c>
       <c r="C21">
-        <v>59902</v>
+        <v>3583</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>5518</v>
+        <v>4093</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3793,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1713</v>
+        <v>1450</v>
       </c>
       <c r="K21">
-        <v>27357</v>
+        <v>23338</v>
       </c>
       <c r="L21">
-        <v>6178</v>
+        <v>3909</v>
       </c>
       <c r="M21">
-        <v>520677</v>
+        <v>401739</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3819,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>4330</v>
+        <v>3795</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3843,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4337</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3892,7 +3893,7 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3901,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>20012</v>
+        <v>16783</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3922,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>20043</v>
+        <v>16806</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3933,19 +3934,19 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>237511</v>
+        <v>237533</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>430434</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>14320</v>
+        <v>14322</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3963,10 +3964,10 @@
         <v>2281</v>
       </c>
       <c r="L25">
-        <v>439483</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>693607</v>
+        <v>684580</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3974,19 +3975,19 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1674</v>
+        <v>2008</v>
       </c>
       <c r="F26">
-        <v>147941</v>
+        <v>138311</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3998,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L26">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="M26">
-        <v>150215</v>
+        <v>140847</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4015,19 +4016,19 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F27">
-        <v>60537</v>
+        <v>55261</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4039,16 +4040,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K27">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L27">
-        <v>2635</v>
+        <v>2177</v>
       </c>
       <c r="M27">
-        <v>64071</v>
+        <v>58307</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4065,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>14893</v>
+        <v>12183</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4089,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>14894</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4106,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>48766</v>
+        <v>46393</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4124,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>49322</v>
+        <v>46990</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4138,7 +4139,7 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4150,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4165,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4185,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>30642</v>
+        <v>29315</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4206,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>30728</v>
+        <v>29366</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4220,19 +4221,19 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>474</v>
+        <v>274</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32">
-        <v>7141</v>
+        <v>6173</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4244,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="K32">
-        <v>1990</v>
+        <v>1323</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>9916</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4261,19 +4262,19 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>44188</v>
+        <v>283</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2242</v>
+        <v>2519</v>
       </c>
       <c r="F33">
-        <v>519</v>
+        <v>51</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4288,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>14120</v>
+        <v>13794</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>61070</v>
+        <v>16647</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4302,7 +4303,7 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4314,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>447563</v>
+        <v>431543</v>
       </c>
       <c r="G34">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4326,16 +4327,16 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>447662</v>
+        <v>431630</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4343,7 +4344,7 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <v>200687</v>
+        <v>197289</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4355,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>7506</v>
+        <v>7370</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4367,16 +4368,16 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2553</v>
+        <v>2806</v>
       </c>
       <c r="K35">
-        <v>27388</v>
+        <v>27391</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>238134</v>
+        <v>234856</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4384,7 +4385,7 @@
         <v>47</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4396,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>544398</v>
+        <v>463605</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4408,16 +4409,16 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>58316</v>
+        <v>57591</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>106851</v>
+        <v>101648</v>
       </c>
       <c r="M36">
-        <v>709566</v>
+        <v>622844</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4425,40 +4426,40 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>1137</v>
+        <v>1080</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F37">
-        <v>399320</v>
+        <v>272337</v>
       </c>
       <c r="G37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K37">
-        <v>2095</v>
+        <v>1953</v>
       </c>
       <c r="L37">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="M37">
-        <v>403296</v>
+        <v>276092</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4478,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3258</v>
+        <v>2090</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4499,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>3259</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4513,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>56390</v>
+        <v>54745</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4537,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>56393</v>
+        <v>54748</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4560,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3004</v>
+        <v>2411</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4581,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>3007</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4601,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>27075</v>
+        <v>24765</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4619,10 +4620,10 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>27080</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4630,22 +4631,22 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>246770</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>1453</v>
+        <v>96</v>
       </c>
       <c r="F42">
-        <v>831886</v>
+        <v>794589</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4657,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>114935</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1195051</v>
+        <v>794695</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4671,10 +4672,10 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>15093</v>
+        <v>12113</v>
       </c>
       <c r="C43">
-        <v>2946</v>
+        <v>3947</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4704,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>18039</v>
+        <v>16060</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4724,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4745,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4753,40 +4754,40 @@
         <v>56</v>
       </c>
       <c r="B45">
-        <v>708</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>79760</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>2</v>
-      </c>
-      <c r="E45">
-        <v>32</v>
-      </c>
-      <c r="F45">
-        <v>85807</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
       <c r="L45">
-        <v>577</v>
+        <v>299</v>
       </c>
       <c r="M45">
-        <v>87139</v>
+        <v>80072</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4806,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1047</v>
+        <v>805</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4827,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1047</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4835,7 +4836,7 @@
         <v>58</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4844,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>40186</v>
+        <v>33447</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4862,13 +4863,13 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>40218</v>
+        <v>33461</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4882,16 +4883,16 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>284549</v>
+        <v>273705</v>
       </c>
       <c r="G48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4903,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>284579</v>
+        <v>273733</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -4917,22 +4918,22 @@
         <v>60</v>
       </c>
       <c r="B49">
-        <v>2388</v>
+        <v>2436</v>
       </c>
       <c r="C49">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1652</v>
       </c>
       <c r="E49">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F49">
-        <v>10211</v>
+        <v>10178</v>
       </c>
       <c r="G49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4941,16 +4942,16 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1188</v>
+        <v>1234</v>
       </c>
       <c r="K49">
-        <v>1582</v>
+        <v>1558</v>
       </c>
       <c r="L49">
-        <v>496</v>
+        <v>202</v>
       </c>
       <c r="M49">
-        <v>16243</v>
+        <v>17621</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -4958,7 +4959,7 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>32357</v>
+        <v>32085</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4967,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1310</v>
+        <v>702</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4991,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>33672</v>
+        <v>32793</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5040,19 +5041,19 @@
         <v>63</v>
       </c>
       <c r="B52">
-        <v>107414</v>
+        <v>107513</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F52">
-        <v>292025</v>
+        <v>268868</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5067,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1158</v>
+        <v>758</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>400666</v>
+        <v>377219</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5081,22 +5082,22 @@
         <v>64</v>
       </c>
       <c r="B53">
-        <v>775</v>
+        <v>578</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E53">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F53">
-        <v>124483</v>
+        <v>115538</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5105,16 +5106,16 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="L53">
-        <v>810</v>
+        <v>489</v>
       </c>
       <c r="M53">
-        <v>126699</v>
+        <v>117229</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5131,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>49249</v>
+        <v>32583</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5155,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>49250</v>
+        <v>32585</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,19 +5164,19 @@
         <v>66</v>
       </c>
       <c r="B55">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>31371</v>
+        <v>27189</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5190,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
-        <v>31749</v>
+        <v>27560</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5210,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>18386</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5228,16 +5229,16 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>18424</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5245,40 +5246,40 @@
         <v>68</v>
       </c>
       <c r="B57">
-        <v>2207158</v>
+        <v>1814312</v>
       </c>
       <c r="C57">
-        <v>65284</v>
+        <v>8485</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>511855</v>
       </c>
       <c r="E57">
-        <v>13290</v>
+        <v>13443</v>
       </c>
       <c r="F57">
-        <v>4972037</v>
+        <v>4487573</v>
       </c>
       <c r="G57">
-        <v>931</v>
+        <v>600</v>
       </c>
       <c r="H57">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I57">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J57">
-        <v>67375</v>
+        <v>66559</v>
       </c>
       <c r="K57">
-        <v>127960</v>
+        <v>116185</v>
       </c>
       <c r="L57">
-        <v>1042691</v>
+        <v>290336</v>
       </c>
       <c r="M57">
-        <v>8496855</v>
+        <v>7309435</v>
       </c>
     </row>
   </sheetData>
@@ -5291,8 +5292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,6 +5359,2374 @@
         <v>13</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5306</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>4565</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>267</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1522</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>30741</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>30762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>12630</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3757</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2951</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>6378</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>821905</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10721</v>
+      </c>
+      <c r="L7">
+        <v>196002</v>
+      </c>
+      <c r="M7">
+        <v>1035042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>77364</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>271</v>
+      </c>
+      <c r="K8">
+        <v>282</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>77933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>371922</v>
+      </c>
+      <c r="C9">
+        <v>191</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5841</v>
+      </c>
+      <c r="F9">
+        <v>63394</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>694</v>
+      </c>
+      <c r="K9">
+        <v>27447</v>
+      </c>
+      <c r="L9">
+        <v>148529</v>
+      </c>
+      <c r="M9">
+        <v>618021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>16359</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>87366</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>183</v>
+      </c>
+      <c r="F11">
+        <v>151859</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>126</v>
+      </c>
+      <c r="L11">
+        <v>11335</v>
+      </c>
+      <c r="M11">
+        <v>250873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>11063</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7593</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>36148</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>36149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>10428</v>
+      </c>
+      <c r="C16">
+        <v>1956</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>570</v>
+      </c>
+      <c r="F16">
+        <v>47555</v>
+      </c>
+      <c r="G16">
+        <v>795</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>411</v>
+      </c>
+      <c r="K16">
+        <v>901</v>
+      </c>
+      <c r="L16">
+        <v>13854</v>
+      </c>
+      <c r="M16">
+        <v>76543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>399425</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>10484</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>409920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>49089</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="K18">
+        <v>156</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>49548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>6908</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>5390</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>12301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>4442</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>36501</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>528</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>41555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>420007</v>
+      </c>
+      <c r="C21">
+        <v>59902</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>5518</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1713</v>
+      </c>
+      <c r="K21">
+        <v>27357</v>
+      </c>
+      <c r="L21">
+        <v>6178</v>
+      </c>
+      <c r="M21">
+        <v>520677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4330</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>20012</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>20043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>237511</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>14320</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2281</v>
+      </c>
+      <c r="L25">
+        <v>439483</v>
+      </c>
+      <c r="M25">
+        <v>693607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1674</v>
+      </c>
+      <c r="F26">
+        <v>147941</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>39</v>
+      </c>
+      <c r="L26">
+        <v>467</v>
+      </c>
+      <c r="M26">
+        <v>150215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>737</v>
+      </c>
+      <c r="F27">
+        <v>60537</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>67</v>
+      </c>
+      <c r="L27">
+        <v>2635</v>
+      </c>
+      <c r="M27">
+        <v>64071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>14893</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>14894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>48766</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>550</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>49322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>30642</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>42</v>
+      </c>
+      <c r="L31">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>30728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>474</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>54</v>
+      </c>
+      <c r="F32">
+        <v>7141</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>191</v>
+      </c>
+      <c r="K32">
+        <v>1990</v>
+      </c>
+      <c r="L32">
+        <v>66</v>
+      </c>
+      <c r="M32">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>44188</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2242</v>
+      </c>
+      <c r="F33">
+        <v>519</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>14120</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>61070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>447563</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>22</v>
+      </c>
+      <c r="K34">
+        <v>36</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>447662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>200687</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>7506</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2553</v>
+      </c>
+      <c r="K35">
+        <v>27388</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>238134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>544398</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>58316</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>106851</v>
+      </c>
+      <c r="M36">
+        <v>709566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>1137</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <v>399320</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>29</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>245</v>
+      </c>
+      <c r="K37">
+        <v>2095</v>
+      </c>
+      <c r="L37">
+        <v>407</v>
+      </c>
+      <c r="M37">
+        <v>403296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3258</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>56390</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>56393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>3004</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>27075</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>27080</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>246770</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1453</v>
+      </c>
+      <c r="F42">
+        <v>831886</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>114935</v>
+      </c>
+      <c r="M42">
+        <v>1195051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>15093</v>
+      </c>
+      <c r="C43">
+        <v>2946</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>18039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>444</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>708</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45">
+        <v>85807</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>577</v>
+      </c>
+      <c r="M45">
+        <v>87139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1047</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>40186</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>40218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>284549</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>284579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>2388</v>
+      </c>
+      <c r="C49">
+        <v>132</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>10211</v>
+      </c>
+      <c r="G49">
+        <v>43</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1188</v>
+      </c>
+      <c r="K49">
+        <v>1582</v>
+      </c>
+      <c r="L49">
+        <v>496</v>
+      </c>
+      <c r="M49">
+        <v>16243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>32357</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1310</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>33672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>107414</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>68</v>
+      </c>
+      <c r="F52">
+        <v>292025</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1158</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>400666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>775</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>73</v>
+      </c>
+      <c r="F53">
+        <v>124483</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>114</v>
+      </c>
+      <c r="K53">
+        <v>412</v>
+      </c>
+      <c r="L53">
+        <v>810</v>
+      </c>
+      <c r="M53">
+        <v>126699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>49249</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>49250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>115</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>31371</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>260</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>31749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>35</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>2207158</v>
+      </c>
+      <c r="C57">
+        <v>65284</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>13290</v>
+      </c>
+      <c r="F57">
+        <v>4972037</v>
+      </c>
+      <c r="G57">
+        <v>931</v>
+      </c>
+      <c r="H57">
+        <v>73</v>
+      </c>
+      <c r="I57">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>67375</v>
+      </c>
+      <c r="K57">
+        <v>127960</v>
+      </c>
+      <c r="L57">
+        <v>1042691</v>
+      </c>
+      <c r="M57">
+        <v>8496855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
